--- a/mastersheets_and_selection/to_rate_for_fami_concrete.xlsx
+++ b/mastersheets_and_selection/to_rate_for_fami_concrete.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC7E90C-EBC5-44A6-AE5A-7604DB6F82C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1733D16-09C2-428F-8E3B-43770F2A0B0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="with_counterparts" sheetId="3" r:id="rId1"/>
-    <sheet name="singled_out" sheetId="4" r:id="rId2"/>
+    <sheet name="README" sheetId="5" r:id="rId1"/>
+    <sheet name="with_counterparts" sheetId="3" r:id="rId2"/>
+    <sheet name="singled_out" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="1666">
   <si>
     <t>優良</t>
   </si>
@@ -5007,13 +5008,25 @@
   </si>
   <si>
     <t>阿公已無法自理生活，因此想要被看護照顧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neu frame: abs. valence &lt;= 0.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emo frame: abs. valence &gt;= 1.6 </t>
+  </si>
+  <si>
+    <t>plausibility &gt;= 3.7</t>
+  </si>
+  <si>
+    <t>CRITERIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5024,6 +5037,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5065,11 +5093,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5349,10 +5379,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB46AFC-C39B-4FBF-947E-B3D8A8762F44}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F32171-DE9F-410E-ADBC-C27E79849A9F}">
   <dimension ref="A1:AA641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0"/>
+    <sheetView topLeftCell="A608" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -44152,7 +44226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEC2570-AF11-48D2-9C24-FA8DF289CCF5}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
